--- a/Reservoirdogs/Todo.xlsx
+++ b/Reservoirdogs/Todo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t>Requirements</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Zoeken</t>
+  </si>
+  <si>
+    <t>Documenten verdieping</t>
   </si>
 </sst>
 </file>
@@ -426,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H16"/>
+  <dimension ref="B2:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B4:B16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,6 +645,20 @@
         <v>4</v>
       </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17">
         <v>0</v>
       </c>
     </row>

--- a/Reservoirdogs/Todo.xlsx
+++ b/Reservoirdogs/Todo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>Requirements</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>Documenten verdieping</t>
+  </si>
+  <si>
+    <t>Mijn Kennisgroepen</t>
+  </si>
+  <si>
+    <t>Mijn Agenda</t>
+  </si>
+  <si>
+    <t>Mijn Discussies</t>
   </si>
 </sst>
 </file>
@@ -429,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H17"/>
+  <dimension ref="B2:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +525,7 @@
         <v>4</v>
       </c>
       <c r="G7">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
@@ -561,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="G10">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -659,6 +668,48 @@
         <v>4</v>
       </c>
       <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20">
         <v>0</v>
       </c>
     </row>

--- a/Reservoirdogs/Todo.xlsx
+++ b/Reservoirdogs/Todo.xlsx
@@ -90,7 +90,7 @@
     <t>Mijn Agenda</t>
   </si>
   <si>
-    <t>Mijn Discussies</t>
+    <t>Mijn Projecten</t>
   </si>
 </sst>
 </file>
@@ -114,12 +114,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -134,9 +140,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -441,7 +448,7 @@
   <dimension ref="B2:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="A20" sqref="A19:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,26 +484,26 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5">
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2">
         <v>0</v>
       </c>
     </row>
@@ -508,10 +515,10 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -522,10 +529,10 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
@@ -564,7 +571,7 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
         <v>4</v>
@@ -643,17 +650,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16">
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2">
         <v>0</v>
       </c>
     </row>
@@ -676,13 +683,13 @@
         <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
         <v>4</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">

--- a/Reservoirdogs/Todo.xlsx
+++ b/Reservoirdogs/Todo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
   <si>
     <t>Requirements</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Opmerkingen</t>
-  </si>
-  <si>
-    <t>(renamen naar nederlands)</t>
   </si>
   <si>
     <t>Hoofdnavigatie</t>
@@ -448,7 +445,7 @@
   <dimension ref="B2:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A19:XFD20"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,15 +529,12 @@
         <v>5</v>
       </c>
       <c r="G7">
-        <v>90</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -549,12 +543,12 @@
         <v>5</v>
       </c>
       <c r="G8">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -563,12 +557,12 @@
         <v>4</v>
       </c>
       <c r="G9">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -582,7 +576,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -591,12 +585,12 @@
         <v>4</v>
       </c>
       <c r="G11">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -610,7 +604,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -624,7 +618,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -638,7 +632,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -652,7 +646,7 @@
     </row>
     <row r="16" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>4</v>
@@ -666,7 +660,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -680,7 +674,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -689,12 +683,12 @@
         <v>4</v>
       </c>
       <c r="G18">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -708,7 +702,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -717,7 +711,7 @@
         <v>4</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Reservoirdogs/Todo.xlsx
+++ b/Reservoirdogs/Todo.xlsx
@@ -445,7 +445,7 @@
   <dimension ref="B2:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="G8">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>4</v>
       </c>
       <c r="G11">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -697,7 +697,7 @@
         <v>4</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">

--- a/Reservoirdogs/Todo.xlsx
+++ b/Reservoirdogs/Todo.xlsx
@@ -445,7 +445,7 @@
   <dimension ref="B2:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +655,7 @@
         <v>4</v>
       </c>
       <c r="G16" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
